--- a/storage.xlsx
+++ b/storage.xlsx
@@ -16,18 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
+    <t>SEKDI</t>
+  </si>
+  <si>
+    <t>SAVBR</t>
+  </si>
+  <si>
+    <t>MIJAL</t>
+  </si>
+  <si>
     <t>BASML</t>
   </si>
   <si>
-    <t>SEKDI</t>
-  </si>
-  <si>
-    <t>MIJAL</t>
-  </si>
-  <si>
-    <t>SAVBR</t>
-  </si>
-  <si>
     <t>2017-08-17 21:39:00</t>
   </si>
   <si>
@@ -37,30 +37,345 @@
     <t>Istok</t>
   </si>
   <si>
+    <t>2017-08-17 21:43:10</t>
+  </si>
+  <si>
+    <t>spo</t>
+  </si>
+  <si>
+    <t>2017-08-17 21:43:41</t>
+  </si>
+  <si>
+    <t>kcg</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:05:45</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:08:29</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:08:53</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:10:38</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:11:07</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:15:05</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:15:54</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:17:27</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:18:39</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:19:13</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:21:42</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:25:34</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:27:59</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:37:34</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:39:47</t>
+  </si>
+  <si>
+    <t>2017-08-17 21:51:45</t>
+  </si>
+  <si>
+    <t>2017-08-17 21:58:29</t>
+  </si>
+  <si>
+    <t>2017-08-17 21:59:26</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:08:21</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:14:18</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:19:16</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:38:49</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:51:05</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:53:26</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:56:08</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:59:14</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:59:34</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:01:30</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:03:46</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:06:33</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:11:01</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:11:57</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:18:26</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:18:38</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:18:59</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:21:38</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:21:39</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:22:03</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:24:21</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:25:22</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:25:47</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:27:40</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:30:51</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:31:23</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:32:55</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:35:07</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:35:55</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:36:54</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:37:15</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:38:04</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:39:29</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:39:33</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:40:32</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:41:53</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:42:53</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:43:36</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:45:04</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:46:36</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:54:29</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:56:45</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:58:39</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:20:24</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:22:55</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:24:51</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:27:40</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:28:11</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:30:44</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:33:34</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:34:29</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:34:35</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:38:05</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:39:45</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:41:07</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:42:09</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:42:10</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:44:09</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:45:20</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:45:25</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:51:20</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:51:56</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:53:37</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:55:13</t>
+  </si>
+  <si>
+    <t>2017-08-18 01:05:44</t>
+  </si>
+  <si>
+    <t>2017-08-18 01:08:52</t>
+  </si>
+  <si>
+    <t>2017-08-18 01:09:41</t>
+  </si>
+  <si>
+    <t>2017-08-18 01:09:48</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:05:54</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:06:27</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:08:18</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:09:23</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:09:46</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:10:00</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:11:17</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:14:36</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:16:05</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:16:46</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:19:17</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:12:44</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:26:31</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:27:53</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:37:48</t>
+  </si>
+  <si>
+    <t>2017-08-17 22:57:13</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:29:59</t>
+  </si>
+  <si>
+    <t>2017-08-17 23:44:07</t>
+  </si>
+  <si>
+    <t>2017-08-18 00:46:46</t>
+  </si>
+  <si>
+    <t>2017-08-18 01:07:42</t>
+  </si>
+  <si>
     <t>2017-08-17 21:42:56</t>
   </si>
   <si>
-    <t>2017-08-17 21:43:10</t>
-  </si>
-  <si>
-    <t>spo</t>
-  </si>
-  <si>
-    <t>2017-08-17 21:43:41</t>
-  </si>
-  <si>
-    <t>kcg</t>
-  </si>
-  <si>
-    <t>2017-08-17 21:51:45</t>
-  </si>
-  <si>
-    <t>2017-08-17 21:58:29</t>
-  </si>
-  <si>
-    <t>2017-08-17 21:59:26</t>
-  </si>
-  <si>
     <t>2017-08-17 21:59:51</t>
   </si>
   <si>
@@ -70,322 +385,7 @@
     <t>2017-08-17 22:02:02</t>
   </si>
   <si>
-    <t>2017-08-17 22:05:45</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:08:21</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:08:29</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:08:53</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:10:38</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:11:07</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:12:44</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:14:18</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:15:05</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:15:54</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:17:27</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:18:39</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:19:13</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:19:16</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:21:42</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:25:34</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:26:31</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:27:53</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:27:59</t>
-  </si>
-  <si>
     <t>2017-08-17 22:30:07</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:37:34</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:37:48</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:38:49</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:39:47</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:51:05</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:53:26</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:56:08</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:57:13</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:59:14</t>
-  </si>
-  <si>
-    <t>2017-08-17 22:59:34</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:01:30</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:03:46</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:06:33</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:11:01</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:11:57</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:18:26</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:18:38</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:18:59</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:21:38</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:21:39</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:22:03</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:24:21</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:25:22</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:25:47</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:27:40</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:29:59</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:30:51</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:31:23</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:32:55</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:35:07</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:35:55</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:36:54</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:37:15</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:38:04</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:39:29</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:39:33</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:40:32</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:41:53</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:42:53</t>
-  </si>
-  <si>
-    <t>ant</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:43:36</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:44:07</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:45:04</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:46:36</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:54:29</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:56:45</t>
-  </si>
-  <si>
-    <t>2017-08-17 23:58:39</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:20:24</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:22:55</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:24:51</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:27:40</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:28:11</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:30:44</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:33:34</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:34:29</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:34:35</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:38:05</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:39:45</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:41:07</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:42:09</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:42:10</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:44:09</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:45:20</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:45:25</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:46:46</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:51:20</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:51:56</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:53:37</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:55:13</t>
-  </si>
-  <si>
-    <t>2017-08-18 01:05:44</t>
-  </si>
-  <si>
-    <t>2017-08-18 01:07:42</t>
-  </si>
-  <si>
-    <t>2017-08-18 01:08:52</t>
-  </si>
-  <si>
-    <t>2017-08-18 01:09:41</t>
-  </si>
-  <si>
-    <t>2017-08-18 01:09:48</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:05:54</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:06:27</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:08:18</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:09:23</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:09:46</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:10:00</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:11:17</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:14:36</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:16:05</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:16:46</t>
-  </si>
-  <si>
-    <t>2017-08-18 00:19:17</t>
   </si>
 </sst>
 </file>
@@ -747,16 +747,16 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -764,98 +764,98 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
         <v>6.83</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>6.16</v>
       </c>
       <c r="O4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -863,166 +863,262 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
         <v>6.16</v>
       </c>
       <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
         <v>6.16</v>
       </c>
       <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
         <v>6.83</v>
       </c>
-      <c r="J11" t="s">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
         <v>6.83</v>
       </c>
-      <c r="J13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>6.16</v>
@@ -1031,10 +1127,10 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>6.33</v>
@@ -1045,18 +1141,42 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1065,27 +1185,51 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>6.16</v>
       </c>
       <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1097,22 +1241,22 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
@@ -1121,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
         <v>6.16</v>
@@ -1130,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s">
         <v>5</v>
@@ -1147,15 +1291,51 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1163,23 +1343,47 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
+      <c r="B18" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
+      <c r="L18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S18" t="n">
         <v>6.33</v>
@@ -1192,16 +1396,28 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="G19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1210,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1225,24 +1441,12 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
         <v>6.16</v>
       </c>
       <c r="O20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1251,34 +1455,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
       <c r="L21" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>6.16</v>
@@ -1291,35 +1483,11 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
         <v>6.16</v>
@@ -1333,34 +1501,34 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J23" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
         <v>6.16</v>
@@ -1373,35 +1541,11 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J24" t="s">
-        <v>6</v>
-      </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" t="n">
         <v>6.16</v>
@@ -1432,51 +1576,39 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>6.33</v>
+        <v>6.83</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N26" t="n">
         <v>6.16</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1484,52 +1616,28 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="M27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27" t="n">
         <v>6.16</v>
       </c>
       <c r="O27" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1538,27 +1646,27 @@
         <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J28" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="L28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1567,27 +1675,27 @@
         <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J29" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1595,52 +1703,16 @@
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J30" t="s">
-        <v>6</v>
-      </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N30" t="n">
         <v>6.16</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R30" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1648,16 +1720,16 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="G31" t="n">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1665,52 +1737,28 @@
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
       <c r="G32" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N32" t="n">
         <v>6.16</v>
       </c>
       <c r="O32" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R32" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1718,16 +1766,16 @@
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R33" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1736,39 +1784,27 @@
         <v>41</v>
       </c>
       <c r="G34" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.83</v>
+        <v>6.33</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>6.16</v>
       </c>
       <c r="O34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R34" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1776,28 +1812,16 @@
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1806,27 +1830,15 @@
         <v>43</v>
       </c>
       <c r="L36" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1834,28 +1846,28 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
       <c r="L37" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O37" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R37" t="s">
-        <v>9</v>
-      </c>
-      <c r="S37" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1864,27 +1876,15 @@
         <v>45</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="s">
-        <v>11</v>
-      </c>
-      <c r="S38" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1892,16 +1892,28 @@
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="s">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1910,13 +1922,13 @@
         <v>47</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N40" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O40" t="s">
         <v>6</v>
@@ -1930,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="M41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N41" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O41" t="s">
         <v>6</v>
@@ -1944,27 +1956,15 @@
         <v>49</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N42" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O42" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1973,13 +1973,13 @@
         <v>50</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43" t="s">
         <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O43" t="s">
         <v>6</v>
@@ -1989,28 +1989,28 @@
       <c r="A44" t="s">
         <v>51</v>
       </c>
+      <c r="G44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="s">
         <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="O44" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
         <v>52</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" t="s">
         <v>5</v>
@@ -2036,10 +2036,10 @@
         <v>53</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N46" t="n">
         <v>6.13</v>
@@ -2056,24 +2056,12 @@
         <v>4</v>
       </c>
       <c r="M47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N47" t="n">
         <v>6.13</v>
       </c>
       <c r="O47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="s">
-        <v>9</v>
-      </c>
-      <c r="S47" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2102,24 +2090,12 @@
         <v>3</v>
       </c>
       <c r="M49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
         <v>6.13</v>
       </c>
       <c r="O49" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2131,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="M50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N50" t="n">
         <v>6.13</v>
@@ -2145,10 +2121,10 @@
         <v>58</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N51" t="n">
         <v>6.13</v>
@@ -2161,11 +2137,23 @@
       <c r="A52" t="s">
         <v>59</v>
       </c>
+      <c r="G52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
       <c r="L52" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N52" t="n">
         <v>6.13</v>
@@ -2179,7 +2167,7 @@
         <v>60</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53" t="s">
         <v>5</v>
@@ -2196,27 +2184,15 @@
         <v>61</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N54" t="n">
         <v>6.13</v>
       </c>
       <c r="O54" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2224,6 +2200,18 @@
       <c r="A55" t="s">
         <v>62</v>
       </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
       <c r="L55" t="n">
         <v>3</v>
       </c>
@@ -2241,11 +2229,23 @@
       <c r="A56" t="s">
         <v>63</v>
       </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
       <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N56" t="n">
         <v>6.13</v>
@@ -2258,16 +2258,28 @@
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="Q57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R57" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T57" t="s">
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O57" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2276,10 +2288,10 @@
         <v>65</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
         <v>6.13</v>
@@ -2292,11 +2304,23 @@
       <c r="A59" t="s">
         <v>66</v>
       </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N59" t="n">
         <v>6.13</v>
@@ -2307,10 +2331,22 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60" t="s">
         <v>5</v>
@@ -2324,13 +2360,13 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L61" t="n">
         <v>4</v>
       </c>
       <c r="M61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N61" t="n">
         <v>6.13</v>
@@ -2341,13 +2377,25 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N62" t="n">
         <v>6.13</v>
@@ -2358,42 +2406,30 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N63" t="n">
         <v>6.13</v>
       </c>
       <c r="O63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R63" t="s">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N64" t="n">
         <v>6.13</v>
@@ -2404,13 +2440,13 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L65" t="n">
         <v>3</v>
       </c>
       <c r="M65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N65" t="n">
         <v>6.13</v>
@@ -2421,103 +2457,79 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N66" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O66" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>3</v>
-      </c>
-      <c r="R66" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N67" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O67" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3</v>
-      </c>
-      <c r="R67" t="s">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
       </c>
       <c r="L68" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O68" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2</v>
-      </c>
-      <c r="R68" t="s">
-        <v>9</v>
-      </c>
-      <c r="S68" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O69" t="s">
         <v>6</v>
@@ -2525,30 +2537,30 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O70" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>3</v>
-      </c>
-      <c r="R70" t="s">
-        <v>78</v>
-      </c>
-      <c r="S70" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T70" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2556,28 +2568,28 @@
       <c r="A71" t="s">
         <v>79</v>
       </c>
+      <c r="G71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" t="s">
         <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>3</v>
-      </c>
-      <c r="R71" t="s">
-        <v>11</v>
-      </c>
-      <c r="S71" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T71" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2585,16 +2597,16 @@
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="Q72" t="n">
-        <v>3</v>
-      </c>
-      <c r="R72" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T72" t="s">
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O72" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2602,14 +2614,26 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M73" t="s">
         <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O73" t="s">
         <v>6</v>
@@ -2620,27 +2644,15 @@
         <v>82</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N74" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O74" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>3</v>
-      </c>
-      <c r="R74" t="s">
-        <v>5</v>
-      </c>
-      <c r="S74" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2649,13 +2661,13 @@
         <v>83</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N75" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O75" t="s">
         <v>6</v>
@@ -2665,14 +2677,26 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
       <c r="L76" t="n">
         <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N76" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O76" t="s">
         <v>6</v>
@@ -2682,14 +2706,26 @@
       <c r="A77" t="s">
         <v>85</v>
       </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
         <v>5</v>
       </c>
       <c r="N77" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="O77" t="s">
         <v>6</v>
@@ -2700,10 +2736,10 @@
         <v>86</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
         <v>6.1</v>
@@ -2717,10 +2753,10 @@
         <v>87</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
         <v>6.1</v>
@@ -2734,7 +2770,7 @@
         <v>88</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M80" t="s">
         <v>5</v>
@@ -2743,18 +2779,6 @@
         <v>6.1</v>
       </c>
       <c r="O80" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>3</v>
-      </c>
-      <c r="R80" t="s">
-        <v>5</v>
-      </c>
-      <c r="S80" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2763,10 +2787,10 @@
         <v>89</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N81" t="n">
         <v>6.1</v>
@@ -2780,7 +2804,7 @@
         <v>90</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="s">
         <v>5</v>
@@ -2789,18 +2813,6 @@
         <v>6.1</v>
       </c>
       <c r="O82" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>2</v>
-      </c>
-      <c r="R82" t="s">
-        <v>9</v>
-      </c>
-      <c r="S82" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T82" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2809,7 +2821,7 @@
         <v>91</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" t="s">
         <v>5</v>
@@ -2818,18 +2830,6 @@
         <v>6.1</v>
       </c>
       <c r="O83" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R83" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T83" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2838,10 +2838,10 @@
         <v>92</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N84" t="n">
         <v>6.1</v>
@@ -2854,28 +2854,28 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N85" t="n">
         <v>6.1</v>
       </c>
       <c r="O85" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R85" t="s">
-        <v>5</v>
-      </c>
-      <c r="S85" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T85" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2883,11 +2883,23 @@
       <c r="A86" t="s">
         <v>94</v>
       </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N86" t="n">
         <v>6.1</v>
@@ -2904,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="M87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N87" t="n">
         <v>6.1</v>
@@ -2921,24 +2933,12 @@
         <v>3</v>
       </c>
       <c r="M88" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N88" t="n">
         <v>6.1</v>
       </c>
       <c r="O88" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2</v>
-      </c>
-      <c r="R88" t="s">
-        <v>78</v>
-      </c>
-      <c r="S88" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T88" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
         <v>97</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89" t="s">
         <v>5</v>
@@ -2956,18 +2956,6 @@
         <v>6.1</v>
       </c>
       <c r="O89" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2</v>
-      </c>
-      <c r="R89" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T89" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2979,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N90" t="n">
         <v>6.1</v>
@@ -2993,13 +2981,13 @@
         <v>99</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N91" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="O91" t="s">
         <v>6</v>
@@ -3010,13 +2998,13 @@
         <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N92" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="O92" t="s">
         <v>6</v>
@@ -3027,13 +3015,13 @@
         <v>101</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="O93" t="s">
         <v>6</v>
@@ -3044,13 +3032,13 @@
         <v>102</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M94" t="s">
         <v>5</v>
       </c>
       <c r="N94" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="O94" t="s">
         <v>6</v>
@@ -3060,16 +3048,16 @@
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="Q95" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R95" t="s">
-        <v>5</v>
-      </c>
-      <c r="S95" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T95" t="s">
+      <c r="L95" t="n">
+        <v>4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>8</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O95" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3078,10 +3066,10 @@
         <v>104</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N96" t="n">
         <v>6.1</v>
@@ -3095,10 +3083,10 @@
         <v>105</v>
       </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N97" t="n">
         <v>6.1</v>
@@ -3112,27 +3100,15 @@
         <v>106</v>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N98" t="n">
         <v>6.1</v>
       </c>
       <c r="O98" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>3</v>
-      </c>
-      <c r="R98" t="s">
-        <v>9</v>
-      </c>
-      <c r="S98" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T98" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3141,27 +3117,15 @@
         <v>107</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N99" t="n">
         <v>6.1</v>
       </c>
       <c r="O99" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>2</v>
-      </c>
-      <c r="R99" t="s">
-        <v>78</v>
-      </c>
-      <c r="S99" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T99" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3170,10 +3134,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N100" t="n">
         <v>6.1</v>
@@ -3186,16 +3150,16 @@
       <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="Q101" t="n">
-        <v>3</v>
-      </c>
-      <c r="R101" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="T101" t="s">
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O101" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3203,16 +3167,28 @@
       <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="L102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O102" t="s">
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J102" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3220,16 +3196,28 @@
       <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="L103" t="n">
-        <v>3</v>
-      </c>
-      <c r="M103" t="s">
-        <v>5</v>
-      </c>
-      <c r="N103" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O103" t="s">
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J103" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3237,16 +3225,28 @@
       <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="L104" t="n">
-        <v>4</v>
-      </c>
-      <c r="M104" t="s">
-        <v>9</v>
-      </c>
-      <c r="N104" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O104" t="s">
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J104" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3254,16 +3254,16 @@
       <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="L105" t="n">
-        <v>2</v>
-      </c>
-      <c r="M105" t="s">
-        <v>9</v>
-      </c>
-      <c r="N105" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O105" t="s">
+      <c r="G105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3271,16 +3271,16 @@
       <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="L106" t="n">
-        <v>4</v>
-      </c>
-      <c r="M106" t="s">
-        <v>9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O106" t="s">
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J106" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3288,16 +3288,16 @@
       <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="L107" t="n">
-        <v>4</v>
-      </c>
-      <c r="M107" t="s">
-        <v>5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O107" t="s">
+      <c r="G107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J107" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3305,16 +3305,16 @@
       <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="L108" t="n">
-        <v>4</v>
-      </c>
-      <c r="M108" t="s">
-        <v>5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O108" t="s">
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J108" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3322,16 +3322,16 @@
       <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="L109" t="n">
-        <v>4</v>
-      </c>
-      <c r="M109" t="s">
-        <v>9</v>
-      </c>
-      <c r="N109" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O109" t="s">
+      <c r="G109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H109" t="s">
+        <v>5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J109" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3339,16 +3339,16 @@
       <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="L110" t="n">
-        <v>3</v>
-      </c>
-      <c r="M110" t="s">
-        <v>9</v>
-      </c>
-      <c r="N110" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O110" t="s">
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="J110" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3356,16 +3356,16 @@
       <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>9</v>
-      </c>
-      <c r="N111" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O111" t="s">
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E111" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3373,16 +3373,16 @@
       <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="L112" t="n">
-        <v>3</v>
-      </c>
-      <c r="M112" t="s">
-        <v>5</v>
-      </c>
-      <c r="N112" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O112" t="s">
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E112" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3390,16 +3390,16 @@
       <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>9</v>
-      </c>
-      <c r="N113" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O113" t="s">
+      <c r="B113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3407,16 +3407,16 @@
       <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="L114" t="n">
-        <v>3</v>
-      </c>
-      <c r="M114" t="s">
-        <v>9</v>
-      </c>
-      <c r="N114" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O114" t="s">
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E114" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3424,16 +3424,16 @@
       <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="L115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M115" t="s">
-        <v>9</v>
-      </c>
-      <c r="N115" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O115" t="s">
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E115" t="s">
         <v>6</v>
       </c>
     </row>
